--- a/Apirl_2019/广州/dt1479-股票G-20190424-除去上海，广东，北京，新疆，西藏.xlsx
+++ b/Apirl_2019/广州/dt1479-股票G-20190424-除去上海，广东，北京，新疆，西藏.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>标签</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>是否过滤搜索引擎</t>
     </r>
     <r>
@@ -30,7 +36,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -49,7 +54,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -71,25 +75,19 @@
     <t>*.tdx.com.cn:80/*</t>
   </si>
   <si>
-    <t>*.wenhua.com.cn:443/*</t>
-  </si>
-  <si>
-    <t>thmobileapi.jingzhuan.cn:80/*</t>
-  </si>
-  <si>
-    <t>203.119.216.50/*</t>
-  </si>
-  <si>
-    <t>d.zhangle.com:80/*</t>
-  </si>
-  <si>
-    <t>th5dl.yongjinbao.com.cn:80/*</t>
-  </si>
-  <si>
-    <t>*.citicsinfo.com:81/*</t>
-  </si>
-  <si>
-    <t>ubaa.chinastock.com.cn:8106/*</t>
+    <t>*.wenhua.com.cn/*</t>
+  </si>
+  <si>
+    <t>thmobileapi.jingzhuan.cn/*</t>
+  </si>
+  <si>
+    <t>d.zhangle.com/*</t>
+  </si>
+  <si>
+    <t>th5dl.yongjinbao.com.cn/*</t>
+  </si>
+  <si>
+    <t>ubaa.chinastock.com.cn/*</t>
   </si>
 </sst>
 </file>
@@ -98,9 +96,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -114,7 +112,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -127,6 +124,35 @@
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -137,49 +163,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -191,83 +239,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,61 +285,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,25 +435,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,91 +453,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,6 +476,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -493,6 +514,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,54 +568,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -587,10 +584,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -599,142 +596,148 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1057,22 +1060,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="32.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1080,21 +1086,21 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:3">
-      <c r="A3" t="s">
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:3">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1102,7 +1108,7 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
@@ -1113,7 +1119,7 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
@@ -1124,7 +1130,7 @@
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
@@ -1135,7 +1141,7 @@
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="s">
@@ -1146,7 +1152,7 @@
       <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
@@ -1157,32 +1163,10 @@
       <c r="A9" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" spans="1:3">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" spans="1:3">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
         <v>5</v>
       </c>
     </row>
